--- a/grape_dane/tree_grape.xlsx
+++ b/grape_dane/tree_grape.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monwe\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monwe\Desktop\doktoranckie\artykuł GRAPE\grape_dane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7B427CE-3254-4E20-8021-9DDC55FE69DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB5BEDA-0512-4D54-BC86-A1F71DE26DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{30DA40BE-F0E6-4B16-BE8D-218202C7C06C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="251">
   <si>
     <t>country</t>
   </si>
@@ -43,28 +43,10 @@
     <t>year</t>
   </si>
   <si>
-    <t>Gini coefficient</t>
-  </si>
-  <si>
     <t>unemployment</t>
   </si>
   <si>
-    <t>GDP pc</t>
-  </si>
-  <si>
-    <t>female workforce</t>
-  </si>
-  <si>
-    <t>tax revenue</t>
-  </si>
-  <si>
-    <t>expected number of years of education</t>
-  </si>
-  <si>
     <t>FDI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expected number of years of life </t>
   </si>
   <si>
     <t>workforce</t>
@@ -76,12 +58,6 @@
     <t>financialization</t>
   </si>
   <si>
-    <t>membership of the EU</t>
-  </si>
-  <si>
-    <t>number of years in the EU</t>
-  </si>
-  <si>
     <t>CIT</t>
   </si>
   <si>
@@ -89,9 +65,6 @@
   </si>
   <si>
     <t>FTW</t>
-  </si>
-  <si>
-    <t>Gini_group</t>
   </si>
   <si>
     <t>SK</t>
@@ -783,6 +756,39 @@
   <si>
     <t>122034000</t>
   </si>
+  <si>
+    <t>Gini_coefficient</t>
+  </si>
+  <si>
+    <t>GDP_pc</t>
+  </si>
+  <si>
+    <t>female_workforce</t>
+  </si>
+  <si>
+    <t>tax_revenue</t>
+  </si>
+  <si>
+    <t>expected_number_of_years_of_education</t>
+  </si>
+  <si>
+    <t>expected_number_of_years_of_life</t>
+  </si>
+  <si>
+    <t>EU_group</t>
+  </si>
+  <si>
+    <t>EU_membership</t>
+  </si>
+  <si>
+    <t>number_of_years_in_the_EU</t>
+  </si>
+  <si>
+    <t>w_UE</t>
+  </si>
+  <si>
+    <t>podzial</t>
+  </si>
 </sst>
 </file>
 
@@ -1385,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7669901-D9EF-4580-ADC6-F60F17A32EC2}">
-  <dimension ref="A1:S477"/>
+  <dimension ref="A1:U477"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1396,7 +1402,7 @@
     <col min="9" max="9" width="16.05078125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="78" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:21" ht="78" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1404,60 +1410,66 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>240</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="S1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="T1" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="U1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A2" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A2" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="B2" s="10">
         <v>1991</v>
@@ -1515,9 +1527,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A3" s="19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B3" s="20">
         <v>1992</v>
@@ -1575,9 +1587,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A4" s="19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B4" s="20">
         <v>1993</v>
@@ -1635,9 +1647,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A5" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B5" s="20">
         <v>1991</v>
@@ -1695,9 +1707,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A6" s="19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B6" s="20">
         <v>1994</v>
@@ -1754,9 +1766,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A7" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B7" s="20">
         <v>1992</v>
@@ -1814,9 +1826,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A8" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B8" s="20">
         <v>1993</v>
@@ -1873,9 +1885,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A9" s="19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B9" s="20">
         <v>1995</v>
@@ -1932,9 +1944,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A10" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B10" s="20">
         <v>1991</v>
@@ -1958,7 +1970,7 @@
         <v>11</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J10" s="20">
         <v>69.5</v>
@@ -1991,9 +2003,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A11" s="19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B11" s="20">
         <v>1991</v>
@@ -2051,9 +2063,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A12" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B12" s="20">
         <v>1991</v>
@@ -2110,9 +2122,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:21" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A13" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B13" s="20">
         <v>1992</v>
@@ -2169,9 +2181,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A14" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B14" s="20">
         <v>1994</v>
@@ -2228,9 +2240,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A15" s="19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B15" s="20">
         <v>2017</v>
@@ -2287,9 +2299,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A16" s="19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B16" s="20">
         <v>2018</v>
@@ -2348,7 +2360,7 @@
     </row>
     <row r="17" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A17" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B17" s="20">
         <v>1993</v>
@@ -2372,7 +2384,7 @@
         <v>12.4</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J17" s="20">
         <v>69.2</v>
@@ -2407,7 +2419,7 @@
     </row>
     <row r="18" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A18" s="19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B18" s="20">
         <v>1992</v>
@@ -2431,7 +2443,7 @@
         <v>12.3</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J18" s="20">
         <v>73.7</v>
@@ -2466,7 +2478,7 @@
     </row>
     <row r="19" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A19" s="19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B19" s="20">
         <v>1996</v>
@@ -2525,7 +2537,7 @@
     </row>
     <row r="20" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A20" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B20" s="20">
         <v>1992</v>
@@ -2549,7 +2561,7 @@
         <v>10.5</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J20" s="20">
         <v>69.5</v>
@@ -2584,7 +2596,7 @@
     </row>
     <row r="21" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A21" s="19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B21" s="20">
         <v>1994</v>
@@ -2608,7 +2620,7 @@
         <v>12.3</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J21" s="20">
         <v>74.2</v>
@@ -2643,7 +2655,7 @@
     </row>
     <row r="22" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A22" s="19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B22" s="20">
         <v>1995</v>
@@ -2667,7 +2679,7 @@
         <v>12.6</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J22" s="20">
         <v>74.5</v>
@@ -2702,7 +2714,7 @@
     </row>
     <row r="23" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A23" s="19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B23" s="20">
         <v>1997</v>
@@ -2726,7 +2738,7 @@
         <v>13.1</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J23" s="20">
         <v>75.099999999999994</v>
@@ -2761,7 +2773,7 @@
     </row>
     <row r="24" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A24" s="19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B24" s="20">
         <v>1999</v>
@@ -2785,7 +2797,7 @@
         <v>14.6</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J24" s="20">
         <v>75.599999999999994</v>
@@ -2820,7 +2832,7 @@
     </row>
     <row r="25" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A25" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B25" s="20">
         <v>1994</v>
@@ -2844,7 +2856,7 @@
         <v>12.4</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J25" s="20">
         <v>68.7</v>
@@ -2879,7 +2891,7 @@
     </row>
     <row r="26" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A26" s="19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B26" s="20">
         <v>1996</v>
@@ -2903,7 +2915,7 @@
         <v>12.8</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J26" s="20">
         <v>74.8</v>
@@ -2938,7 +2950,7 @@
     </row>
     <row r="27" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A27" s="19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B27" s="20">
         <v>1998</v>
@@ -2962,7 +2974,7 @@
         <v>13.7</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J27" s="20">
         <v>75.400000000000006</v>
@@ -2997,7 +3009,7 @@
     </row>
     <row r="28" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A28" s="19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B28" s="20">
         <v>2000</v>
@@ -3021,7 +3033,7 @@
         <v>14.7</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J28" s="20">
         <v>75.900000000000006</v>
@@ -3056,7 +3068,7 @@
     </row>
     <row r="29" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A29" s="19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B29" s="20">
         <v>2001</v>
@@ -3080,7 +3092,7 @@
         <v>15.6</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J29" s="20">
         <v>76.2</v>
@@ -3115,7 +3127,7 @@
     </row>
     <row r="30" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A30" s="9" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B30" s="10">
         <v>2007</v>
@@ -3174,7 +3186,7 @@
     </row>
     <row r="31" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A31" s="19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B31" s="20">
         <v>2016</v>
@@ -3233,7 +3245,7 @@
     </row>
     <row r="32" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A32" s="19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B32" s="20">
         <v>1993</v>
@@ -3257,7 +3269,7 @@
         <v>12.2</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J32" s="20">
         <v>73.900000000000006</v>
@@ -3292,7 +3304,7 @@
     </row>
     <row r="33" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A33" s="19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B33" s="20">
         <v>2002</v>
@@ -3316,7 +3328,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J33" s="20">
         <v>76.5</v>
@@ -3351,7 +3363,7 @@
     </row>
     <row r="34" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A34" s="19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B34" s="20">
         <v>2003</v>
@@ -3375,7 +3387,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J34" s="20">
         <v>76.900000000000006</v>
@@ -3410,7 +3422,7 @@
     </row>
     <row r="35" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A35" s="19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B35" s="20">
         <v>2004</v>
@@ -3434,7 +3446,7 @@
         <v>16.3</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J35" s="20">
         <v>77.2</v>
@@ -3469,7 +3481,7 @@
     </row>
     <row r="36" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A36" s="19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B36" s="20">
         <v>2008</v>
@@ -3528,7 +3540,7 @@
     </row>
     <row r="37" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A37" s="19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B37" s="20">
         <v>2006</v>
@@ -3587,7 +3599,7 @@
     </row>
     <row r="38" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A38" s="19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B38" s="20">
         <v>1997</v>
@@ -3646,7 +3658,7 @@
     </row>
     <row r="39" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A39" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B39" s="20">
         <v>1995</v>
@@ -3705,7 +3717,7 @@
     </row>
     <row r="40" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A40" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B40" s="20">
         <v>1991</v>
@@ -3764,7 +3776,7 @@
     </row>
     <row r="41" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A41" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B41" s="20">
         <v>1995</v>
@@ -3788,7 +3800,7 @@
         <v>12.4</v>
       </c>
       <c r="I41" s="24" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J41" s="20">
         <v>68.3</v>
@@ -3823,7 +3835,7 @@
     </row>
     <row r="42" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A42" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B42" s="20">
         <v>2018</v>
@@ -3847,7 +3859,7 @@
         <v>15.6</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J42" s="20">
         <v>74.599999999999994</v>
@@ -3882,7 +3894,7 @@
     </row>
     <row r="43" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A43" s="19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B43" s="20">
         <v>2005</v>
@@ -3906,7 +3918,7 @@
         <v>16.7</v>
       </c>
       <c r="I43" s="28" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J43" s="20">
         <v>77.599999999999994</v>
@@ -3941,7 +3953,7 @@
     </row>
     <row r="44" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A44" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B44" s="20">
         <v>2017</v>
@@ -3965,7 +3977,7 @@
         <v>15.6</v>
       </c>
       <c r="I44" s="24" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J44" s="20">
         <v>74.3</v>
@@ -4000,7 +4012,7 @@
     </row>
     <row r="45" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A45" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B45" s="20">
         <v>1996</v>
@@ -4024,7 +4036,7 @@
         <v>12.8</v>
       </c>
       <c r="I45" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J45" s="20">
         <v>67.900000000000006</v>
@@ -4059,7 +4071,7 @@
     </row>
     <row r="46" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A46" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B46" s="20">
         <v>2016</v>
@@ -4083,7 +4095,7 @@
         <v>15.5</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J46" s="20">
         <v>74</v>
@@ -4118,7 +4130,7 @@
     </row>
     <row r="47" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A47" s="19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B47" s="20">
         <v>1998</v>
@@ -4177,7 +4189,7 @@
     </row>
     <row r="48" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A48" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B48" s="20">
         <v>2015</v>
@@ -4201,7 +4213,7 @@
         <v>15.5</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J48" s="20">
         <v>73.7</v>
@@ -4236,7 +4248,7 @@
     </row>
     <row r="49" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A49" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B49" s="20">
         <v>1997</v>
@@ -4260,7 +4272,7 @@
         <v>12.9</v>
       </c>
       <c r="I49" s="24" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J49" s="20">
         <v>67.599999999999994</v>
@@ -4295,7 +4307,7 @@
     </row>
     <row r="50" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A50" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B50" s="20">
         <v>2014</v>
@@ -4319,7 +4331,7 @@
         <v>15.6</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="J50" s="20">
         <v>73.2</v>
@@ -4354,7 +4366,7 @@
     </row>
     <row r="51" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A51" s="19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B51" s="20">
         <v>2009</v>
@@ -4413,7 +4425,7 @@
     </row>
     <row r="52" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A52" s="19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B52" s="20">
         <v>2015</v>
@@ -4472,7 +4484,7 @@
     </row>
     <row r="53" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A53" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B53" s="20">
         <v>2005</v>
@@ -4496,7 +4508,7 @@
         <v>14.6</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J53" s="20">
         <v>68.3</v>
@@ -4531,7 +4543,7 @@
     </row>
     <row r="54" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A54" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B54" s="20">
         <v>2011</v>
@@ -4555,7 +4567,7 @@
         <v>15.5</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J54" s="20">
         <v>71.400000000000006</v>
@@ -4590,7 +4602,7 @@
     </row>
     <row r="55" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A55" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B55" s="20">
         <v>2012</v>
@@ -4614,7 +4626,7 @@
         <v>15.6</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J55" s="20">
         <v>72.099999999999994</v>
@@ -4649,7 +4661,7 @@
     </row>
     <row r="56" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A56" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B56" s="20">
         <v>2013</v>
@@ -4673,7 +4685,7 @@
         <v>15.7</v>
       </c>
       <c r="I56" s="24" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J56" s="20">
         <v>72.7</v>
@@ -4708,7 +4720,7 @@
     </row>
     <row r="57" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A57" s="31" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B57" s="32">
         <v>2018</v>
@@ -4767,7 +4779,7 @@
     </row>
     <row r="58" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A58" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B58" s="20">
         <v>2004</v>
@@ -4791,7 +4803,7 @@
         <v>14.4</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J58" s="20">
         <v>68</v>
@@ -4826,7 +4838,7 @@
     </row>
     <row r="59" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A59" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B59" s="20">
         <v>2008</v>
@@ -4850,7 +4862,7 @@
         <v>15.4</v>
       </c>
       <c r="I59" s="24" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J59" s="20">
         <v>69.599999999999994</v>
@@ -4885,7 +4897,7 @@
     </row>
     <row r="60" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A60" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B60" s="20">
         <v>2009</v>
@@ -4909,7 +4921,7 @@
         <v>15.4</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J60" s="20">
         <v>70.2</v>
@@ -4944,7 +4956,7 @@
     </row>
     <row r="61" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A61" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B61" s="20">
         <v>2010</v>
@@ -4968,7 +4980,7 @@
         <v>15.5</v>
       </c>
       <c r="I61" s="24" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J61" s="20">
         <v>70.8</v>
@@ -5003,7 +5015,7 @@
     </row>
     <row r="62" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A62" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B62" s="20">
         <v>2017</v>
@@ -5062,7 +5074,7 @@
     </row>
     <row r="63" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A63" s="19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B63" s="20">
         <v>2017</v>
@@ -5121,7 +5133,7 @@
     </row>
     <row r="64" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A64" s="19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B64" s="20">
         <v>2018</v>
@@ -5180,7 +5192,7 @@
     </row>
     <row r="65" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A65" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B65" s="20">
         <v>1998</v>
@@ -5204,7 +5216,7 @@
         <v>12.8</v>
       </c>
       <c r="I65" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J65" s="20">
         <v>67.400000000000006</v>
@@ -5239,7 +5251,7 @@
     </row>
     <row r="66" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A66" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B66" s="20">
         <v>2003</v>
@@ -5263,7 +5275,7 @@
         <v>14.1</v>
       </c>
       <c r="I66" s="24" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J66" s="20">
         <v>67.8</v>
@@ -5298,7 +5310,7 @@
     </row>
     <row r="67" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A67" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B67" s="20">
         <v>2006</v>
@@ -5322,7 +5334,7 @@
         <v>14.9</v>
       </c>
       <c r="I67" s="24" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J67" s="20">
         <v>68.7</v>
@@ -5357,7 +5369,7 @@
     </row>
     <row r="68" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A68" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B68" s="20">
         <v>2007</v>
@@ -5381,7 +5393,7 @@
         <v>15.1</v>
       </c>
       <c r="I68" s="24" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="J68" s="20">
         <v>69.099999999999994</v>
@@ -5416,7 +5428,7 @@
     </row>
     <row r="69" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A69" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B69" s="20">
         <v>1998</v>
@@ -5475,7 +5487,7 @@
     </row>
     <row r="70" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A70" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B70" s="20">
         <v>1993</v>
@@ -5499,7 +5511,7 @@
         <v>10.3</v>
       </c>
       <c r="I70" s="24" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="J70" s="20">
         <v>69.5</v>
@@ -5534,7 +5546,7 @@
     </row>
     <row r="71" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A71" s="19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B71" s="20">
         <v>1999</v>
@@ -5593,7 +5605,7 @@
     </row>
     <row r="72" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A72" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B72" s="20">
         <v>2002</v>
@@ -5617,7 +5629,7 @@
         <v>13.9</v>
       </c>
       <c r="I72" s="24" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J72" s="20">
         <v>67.599999999999994</v>
@@ -5652,7 +5664,7 @@
     </row>
     <row r="73" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A73" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B73" s="20">
         <v>1999</v>
@@ -5711,7 +5723,7 @@
     </row>
     <row r="74" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A74" s="19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B74" s="20">
         <v>2016</v>
@@ -5770,7 +5782,7 @@
     </row>
     <row r="75" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A75" s="19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B75" s="20">
         <v>2014</v>
@@ -5829,7 +5841,7 @@
     </row>
     <row r="76" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A76" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B76" s="20">
         <v>1999</v>
@@ -5853,7 +5865,7 @@
         <v>13.1</v>
       </c>
       <c r="I76" s="24" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="J76" s="20">
         <v>67.400000000000006</v>
@@ -5888,7 +5900,7 @@
     </row>
     <row r="77" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A77" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B77" s="20">
         <v>2000</v>
@@ -5912,7 +5924,7 @@
         <v>13.3</v>
       </c>
       <c r="I77" s="24" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="J77" s="20">
         <v>67.400000000000006</v>
@@ -5947,7 +5959,7 @@
     </row>
     <row r="78" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A78" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B78" s="20">
         <v>2001</v>
@@ -5971,7 +5983,7 @@
         <v>13.6</v>
       </c>
       <c r="I78" s="24" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J78" s="20">
         <v>67.5</v>
@@ -6006,7 +6018,7 @@
     </row>
     <row r="79" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A79" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B79" s="20">
         <v>1997</v>
@@ -6065,7 +6077,7 @@
     </row>
     <row r="80" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A80" s="19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B80" s="20">
         <v>2010</v>
@@ -6124,7 +6136,7 @@
     </row>
     <row r="81" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A81" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B81" s="20">
         <v>2000</v>
@@ -6183,7 +6195,7 @@
     </row>
     <row r="82" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A82" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B82" s="20">
         <v>2016</v>
@@ -6242,7 +6254,7 @@
     </row>
     <row r="83" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A83" s="19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B83" s="20">
         <v>2011</v>
@@ -6301,7 +6313,7 @@
     </row>
     <row r="84" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A84" s="19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B84" s="20">
         <v>2000</v>
@@ -6360,7 +6372,7 @@
     </row>
     <row r="85" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A85" s="19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B85" s="20">
         <v>2012</v>
@@ -6419,7 +6431,7 @@
     </row>
     <row r="86" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A86" s="9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B86" s="10">
         <v>1996</v>
@@ -6478,7 +6490,7 @@
     </row>
     <row r="87" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A87" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B87" s="20">
         <v>2015</v>
@@ -6537,7 +6549,7 @@
     </row>
     <row r="88" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A88" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B88" s="20">
         <v>1991</v>
@@ -6597,7 +6609,7 @@
     </row>
     <row r="89" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A89" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B89" s="20">
         <v>2001</v>
@@ -6656,7 +6668,7 @@
     </row>
     <row r="90" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A90" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B90" s="20">
         <v>2008</v>
@@ -6715,7 +6727,7 @@
     </row>
     <row r="91" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A91" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B91" s="20">
         <v>2009</v>
@@ -6774,7 +6786,7 @@
     </row>
     <row r="92" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A92" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B92" s="20">
         <v>2011</v>
@@ -6833,7 +6845,7 @@
     </row>
     <row r="93" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A93" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B93" s="20">
         <v>2012</v>
@@ -6892,7 +6904,7 @@
     </row>
     <row r="94" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A94" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B94" s="20">
         <v>2014</v>
@@ -6951,7 +6963,7 @@
     </row>
     <row r="95" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A95" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B95" s="20">
         <v>1991</v>
@@ -7010,7 +7022,7 @@
     </row>
     <row r="96" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A96" s="19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B96" s="20">
         <v>2015</v>
@@ -7069,7 +7081,7 @@
     </row>
     <row r="97" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A97" s="19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B97" s="20">
         <v>2007</v>
@@ -7128,7 +7140,7 @@
     </row>
     <row r="98" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A98" s="19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B98" s="20">
         <v>2008</v>
@@ -7187,7 +7199,7 @@
     </row>
     <row r="99" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A99" s="19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B99" s="20">
         <v>2013</v>
@@ -7246,7 +7258,7 @@
     </row>
     <row r="100" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A100" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B100" s="20">
         <v>2007</v>
@@ -7305,7 +7317,7 @@
     </row>
     <row r="101" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A101" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B101" s="20">
         <v>2010</v>
@@ -7364,7 +7376,7 @@
     </row>
     <row r="102" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A102" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B102" s="20">
         <v>2013</v>
@@ -7423,7 +7435,7 @@
     </row>
     <row r="103" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A103" s="19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B103" s="20">
         <v>2014</v>
@@ -7482,7 +7494,7 @@
     </row>
     <row r="104" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A104" s="19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B104" s="20">
         <v>2011</v>
@@ -7541,7 +7553,7 @@
     </row>
     <row r="105" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A105" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B105" s="20">
         <v>2002</v>
@@ -7600,7 +7612,7 @@
     </row>
     <row r="106" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A106" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B106" s="20">
         <v>1992</v>
@@ -7659,7 +7671,7 @@
     </row>
     <row r="107" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A107" s="19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B107" s="20">
         <v>2013</v>
@@ -7718,7 +7730,7 @@
     </row>
     <row r="108" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A108" s="19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B108" s="20">
         <v>2001</v>
@@ -7777,7 +7789,7 @@
     </row>
     <row r="109" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A109" s="19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B109" s="20">
         <v>2006</v>
@@ -7836,7 +7848,7 @@
     </row>
     <row r="110" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A110" s="19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B110" s="20">
         <v>2009</v>
@@ -7895,7 +7907,7 @@
     </row>
     <row r="111" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A111" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B111" s="20">
         <v>2003</v>
@@ -7954,7 +7966,7 @@
     </row>
     <row r="112" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A112" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B112" s="20">
         <v>2006</v>
@@ -8013,7 +8025,7 @@
     </row>
     <row r="113" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A113" s="31" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B113" s="32">
         <v>2012</v>
@@ -8072,7 +8084,7 @@
     </row>
     <row r="114" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A114" s="19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B114" s="20">
         <v>2010</v>
@@ -8131,7 +8143,7 @@
     </row>
     <row r="115" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A115" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B115" s="20">
         <v>2004</v>
@@ -8190,7 +8202,7 @@
     </row>
     <row r="116" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A116" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B116" s="20">
         <v>2005</v>
@@ -8249,7 +8261,7 @@
     </row>
     <row r="117" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A117" s="19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B117" s="20">
         <v>2002</v>
@@ -8308,7 +8320,7 @@
     </row>
     <row r="118" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A118" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B118" s="20">
         <v>1992</v>
@@ -8367,7 +8379,7 @@
     </row>
     <row r="119" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A119" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B119" s="20">
         <v>1994</v>
@@ -8391,7 +8403,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I119" s="24" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J119" s="20">
         <v>69.5</v>
@@ -8426,7 +8438,7 @@
     </row>
     <row r="120" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A120" s="19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B120" s="20">
         <v>2003</v>
@@ -8485,7 +8497,7 @@
     </row>
     <row r="121" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A121" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B121" s="20">
         <v>1993</v>
@@ -8544,7 +8556,7 @@
     </row>
     <row r="122" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A122" s="19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B122" s="20">
         <v>2004</v>
@@ -8603,7 +8615,7 @@
     </row>
     <row r="123" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A123" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B123" s="20">
         <v>1992</v>
@@ -8627,7 +8639,7 @@
         <v>12.1</v>
       </c>
       <c r="I123" s="28" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J123" s="20">
         <v>69</v>
@@ -8662,7 +8674,7 @@
     </row>
     <row r="124" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A124" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B124" s="20">
         <v>1993</v>
@@ -8686,7 +8698,7 @@
         <v>12.9</v>
       </c>
       <c r="I124" s="28" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="J124" s="20">
         <v>71.3</v>
@@ -8721,7 +8733,7 @@
     </row>
     <row r="125" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A125" s="19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B125" s="20">
         <v>2005</v>
@@ -8780,7 +8792,7 @@
     </row>
     <row r="126" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A126" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B126" s="20">
         <v>2015</v>
@@ -8839,7 +8851,7 @@
     </row>
     <row r="127" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A127" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B127" s="20">
         <v>2016</v>
@@ -8898,7 +8910,7 @@
     </row>
     <row r="128" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A128" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B128" s="20">
         <v>2017</v>
@@ -8957,7 +8969,7 @@
     </row>
     <row r="129" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A129" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B129" s="20">
         <v>1991</v>
@@ -9017,7 +9029,7 @@
     </row>
     <row r="130" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A130" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B130" s="20">
         <v>2008</v>
@@ -9076,7 +9088,7 @@
     </row>
     <row r="131" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A131" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B131" s="20">
         <v>2014</v>
@@ -9135,7 +9147,7 @@
     </row>
     <row r="132" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A132" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B132" s="20">
         <v>2018</v>
@@ -9194,7 +9206,7 @@
     </row>
     <row r="133" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A133" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B133" s="20">
         <v>2005</v>
@@ -9253,7 +9265,7 @@
     </row>
     <row r="134" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A134" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B134" s="20">
         <v>2013</v>
@@ -9312,7 +9324,7 @@
     </row>
     <row r="135" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A135" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B135" s="20">
         <v>2013</v>
@@ -9336,7 +9348,7 @@
         <v>14.9</v>
       </c>
       <c r="I135" s="28" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J135" s="20">
         <v>70.900000000000006</v>
@@ -9371,7 +9383,7 @@
     </row>
     <row r="136" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A136" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B136" s="20">
         <v>2014</v>
@@ -9395,7 +9407,7 @@
         <v>15</v>
       </c>
       <c r="I136" s="28" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="J136" s="20">
         <v>71.3</v>
@@ -9430,7 +9442,7 @@
     </row>
     <row r="137" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A137" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B137" s="20">
         <v>2003</v>
@@ -9489,7 +9501,7 @@
     </row>
     <row r="138" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A138" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B138" s="20">
         <v>2004</v>
@@ -9548,7 +9560,7 @@
     </row>
     <row r="139" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A139" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B139" s="20">
         <v>2006</v>
@@ -9607,7 +9619,7 @@
     </row>
     <row r="140" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A140" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B140" s="20">
         <v>2009</v>
@@ -9666,7 +9678,7 @@
     </row>
     <row r="141" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A141" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B141" s="20">
         <v>1991</v>
@@ -9725,7 +9737,7 @@
     </row>
     <row r="142" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A142" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B142" s="10">
         <v>2012</v>
@@ -9749,7 +9761,7 @@
         <v>14.9</v>
       </c>
       <c r="I142" s="30" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="J142" s="10">
         <v>70.5</v>
@@ -9784,7 +9796,7 @@
     </row>
     <row r="143" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A143" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B143" s="20">
         <v>2015</v>
@@ -9808,7 +9820,7 @@
         <v>14.8</v>
       </c>
       <c r="I143" s="28" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J143" s="20">
         <v>71.5</v>
@@ -9843,7 +9855,7 @@
     </row>
     <row r="144" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A144" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B144" s="20">
         <v>2016</v>
@@ -9867,7 +9879,7 @@
         <v>14.8</v>
       </c>
       <c r="I144" s="28" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J144" s="20">
         <v>71.7</v>
@@ -9902,7 +9914,7 @@
     </row>
     <row r="145" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A145" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B145" s="20">
         <v>2002</v>
@@ -9961,7 +9973,7 @@
     </row>
     <row r="146" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A146" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B146" s="20">
         <v>2007</v>
@@ -10020,7 +10032,7 @@
     </row>
     <row r="147" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A147" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B147" s="20">
         <v>2012</v>
@@ -10079,7 +10091,7 @@
     </row>
     <row r="148" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A148" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B148" s="20">
         <v>2011</v>
@@ -10103,7 +10115,7 @@
         <v>14.8</v>
       </c>
       <c r="I148" s="28" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J148" s="20">
         <v>69.900000000000006</v>
@@ -10138,7 +10150,7 @@
     </row>
     <row r="149" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A149" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B149" s="20">
         <v>2017</v>
@@ -10162,7 +10174,7 @@
         <v>14.9</v>
       </c>
       <c r="I149" s="28" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J149" s="20">
         <v>71.8</v>
@@ -10197,7 +10209,7 @@
     </row>
     <row r="150" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A150" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B150" s="20">
         <v>2001</v>
@@ -10256,7 +10268,7 @@
     </row>
     <row r="151" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A151" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B151" s="20">
         <v>2002</v>
@@ -10315,7 +10327,7 @@
     </row>
     <row r="152" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A152" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B152" s="20">
         <v>2010</v>
@@ -10374,7 +10386,7 @@
     </row>
     <row r="153" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A153" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B153" s="20">
         <v>2018</v>
@@ -10398,7 +10410,7 @@
         <v>14.8</v>
       </c>
       <c r="I153" s="28" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J153" s="20">
         <v>72</v>
@@ -10433,7 +10445,7 @@
     </row>
     <row r="154" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A154" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B154" s="20">
         <v>2007</v>
@@ -10492,7 +10504,7 @@
     </row>
     <row r="155" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A155" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B155" s="20">
         <v>1997</v>
@@ -10551,7 +10563,7 @@
     </row>
     <row r="156" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A156" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B156" s="20">
         <v>1998</v>
@@ -10610,7 +10622,7 @@
     </row>
     <row r="157" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A157" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B157" s="20">
         <v>2000</v>
@@ -10669,7 +10681,7 @@
     </row>
     <row r="158" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A158" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B158" s="20">
         <v>2006</v>
@@ -10728,7 +10740,7 @@
     </row>
     <row r="159" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A159" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B159" s="20">
         <v>2011</v>
@@ -10787,7 +10799,7 @@
     </row>
     <row r="160" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A160" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B160" s="20">
         <v>2010</v>
@@ -10811,7 +10823,7 @@
         <v>14.8</v>
       </c>
       <c r="I160" s="28" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J160" s="20">
         <v>69.400000000000006</v>
@@ -10846,7 +10858,7 @@
     </row>
     <row r="161" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A161" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B161" s="20">
         <v>1992</v>
@@ -10870,7 +10882,7 @@
         <v>12.4</v>
       </c>
       <c r="I161" s="24" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J161" s="20">
         <v>68.099999999999994</v>
@@ -10905,7 +10917,7 @@
     </row>
     <row r="162" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A162" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B162" s="20">
         <v>1995</v>
@@ -10929,7 +10941,7 @@
         <v>10.4</v>
       </c>
       <c r="I162" s="24" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J162" s="20">
         <v>69.5</v>
@@ -10964,7 +10976,7 @@
     </row>
     <row r="163" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A163" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B163" s="20">
         <v>2001</v>
@@ -11023,7 +11035,7 @@
     </row>
     <row r="164" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A164" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B164" s="20">
         <v>1994</v>
@@ -11082,7 +11094,7 @@
     </row>
     <row r="165" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A165" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B165" s="20">
         <v>1995</v>
@@ -11141,7 +11153,7 @@
     </row>
     <row r="166" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A166" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B166" s="20">
         <v>1996</v>
@@ -11200,7 +11212,7 @@
     </row>
     <row r="167" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A167" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B167" s="20">
         <v>1999</v>
@@ -11259,7 +11271,7 @@
     </row>
     <row r="168" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A168" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B168" s="20">
         <v>2011</v>
@@ -11318,7 +11330,7 @@
     </row>
     <row r="169" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A169" s="31" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B169" s="32">
         <v>2010</v>
@@ -11377,7 +11389,7 @@
     </row>
     <row r="170" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A170" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B170" s="10">
         <v>2009</v>
@@ -11401,7 +11413,7 @@
         <v>14.8</v>
       </c>
       <c r="I170" s="30" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J170" s="10">
         <v>68.8</v>
@@ -11436,7 +11448,7 @@
     </row>
     <row r="171" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A171" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B171" s="20">
         <v>2005</v>
@@ -11495,7 +11507,7 @@
     </row>
     <row r="172" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A172" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B172" s="20">
         <v>1996</v>
@@ -11519,7 +11531,7 @@
         <v>10.8</v>
       </c>
       <c r="I172" s="24" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J172" s="20">
         <v>69.599999999999994</v>
@@ -11554,7 +11566,7 @@
     </row>
     <row r="173" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A173" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B173" s="20">
         <v>2000</v>
@@ -11613,7 +11625,7 @@
     </row>
     <row r="174" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A174" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B174" s="20">
         <v>2003</v>
@@ -11672,7 +11684,7 @@
     </row>
     <row r="175" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A175" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B175" s="20">
         <v>2004</v>
@@ -11731,7 +11743,7 @@
     </row>
     <row r="176" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A176" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B176" s="20">
         <v>2015</v>
@@ -11790,7 +11802,7 @@
     </row>
     <row r="177" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A177" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B177" s="20">
         <v>2009</v>
@@ -11849,7 +11861,7 @@
     </row>
     <row r="178" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A178" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B178" s="20">
         <v>1993</v>
@@ -11873,7 +11885,7 @@
         <v>12</v>
       </c>
       <c r="I178" s="28" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J178" s="20">
         <v>68.599999999999994</v>
@@ -11908,7 +11920,7 @@
     </row>
     <row r="179" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A179" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B179" s="20">
         <v>2008</v>
@@ -11967,7 +11979,7 @@
     </row>
     <row r="180" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A180" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B180" s="20">
         <v>2012</v>
@@ -12026,7 +12038,7 @@
     </row>
     <row r="181" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A181" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B181" s="20">
         <v>2016</v>
@@ -12085,7 +12097,7 @@
     </row>
     <row r="182" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A182" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B182" s="20">
         <v>1993</v>
@@ -12109,7 +12121,7 @@
         <v>11.9</v>
       </c>
       <c r="I182" s="24" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J182" s="20">
         <v>67.900000000000006</v>
@@ -12144,7 +12156,7 @@
     </row>
     <row r="183" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A183" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B183" s="20">
         <v>1994</v>
@@ -12168,7 +12180,7 @@
         <v>13.1</v>
       </c>
       <c r="I183" s="28" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J183" s="20">
         <v>71.5</v>
@@ -12203,7 +12215,7 @@
     </row>
     <row r="184" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A184" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B184" s="20">
         <v>2008</v>
@@ -12227,7 +12239,7 @@
         <v>14.8</v>
       </c>
       <c r="I184" s="28" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J184" s="20">
         <v>68.3</v>
@@ -12262,7 +12274,7 @@
     </row>
     <row r="185" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A185" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B185" s="20">
         <v>2014</v>
@@ -12321,7 +12333,7 @@
     </row>
     <row r="186" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A186" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B186" s="20">
         <v>2017</v>
@@ -12380,7 +12392,7 @@
     </row>
     <row r="187" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A187" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B187" s="20">
         <v>2018</v>
@@ -12439,7 +12451,7 @@
     </row>
     <row r="188" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A188" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B188" s="20">
         <v>1997</v>
@@ -12463,7 +12475,7 @@
         <v>11</v>
       </c>
       <c r="I188" s="24" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J188" s="20">
         <v>69.7</v>
@@ -12498,7 +12510,7 @@
     </row>
     <row r="189" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A189" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B189" s="20">
         <v>2013</v>
@@ -12557,7 +12569,7 @@
     </row>
     <row r="190" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A190" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B190" s="20">
         <v>1999</v>
@@ -12616,7 +12628,7 @@
     </row>
     <row r="191" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A191" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B191" s="20">
         <v>2008</v>
@@ -12640,7 +12652,7 @@
         <v>14.6</v>
       </c>
       <c r="I191" s="28" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="J191" s="20">
         <v>66.3</v>
@@ -12675,7 +12687,7 @@
     </row>
     <row r="192" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A192" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B192" s="20">
         <v>1991</v>
@@ -12734,7 +12746,7 @@
     </row>
     <row r="193" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A193" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B193" s="20">
         <v>1998</v>
@@ -12758,7 +12770,7 @@
         <v>11.1</v>
       </c>
       <c r="I193" s="24" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="J193" s="20">
         <v>69.900000000000006</v>
@@ -12793,7 +12805,7 @@
     </row>
     <row r="194" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A194" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B194" s="20">
         <v>1997</v>
@@ -12817,7 +12829,7 @@
         <v>13.8</v>
       </c>
       <c r="I194" s="28" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="J194" s="20">
         <v>72.5</v>
@@ -12852,7 +12864,7 @@
     </row>
     <row r="195" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A195" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B195" s="20">
         <v>2007</v>
@@ -12876,7 +12888,7 @@
         <v>14.8</v>
       </c>
       <c r="I195" s="28" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J195" s="20">
         <v>67.900000000000006</v>
@@ -12911,7 +12923,7 @@
     </row>
     <row r="196" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A196" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B196" s="20">
         <v>1998</v>
@@ -12970,7 +12982,7 @@
     </row>
     <row r="197" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A197" s="31" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B197" s="32">
         <v>2009</v>
@@ -13029,7 +13041,7 @@
     </row>
     <row r="198" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A198" s="9" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B198" s="10">
         <v>1996</v>
@@ -13053,7 +13065,7 @@
         <v>13.3</v>
       </c>
       <c r="I198" s="30" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="J198" s="10">
         <v>72.2</v>
@@ -13088,7 +13100,7 @@
     </row>
     <row r="199" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A199" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B199" s="20">
         <v>1998</v>
@@ -13112,7 +13124,7 @@
         <v>14.2</v>
       </c>
       <c r="I199" s="28" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J199" s="20">
         <v>72.900000000000006</v>
@@ -13147,7 +13159,7 @@
     </row>
     <row r="200" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A200" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B200" s="20">
         <v>1995</v>
@@ -13206,7 +13218,7 @@
     </row>
     <row r="201" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A201" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B201" s="20">
         <v>1996</v>
@@ -13265,7 +13277,7 @@
     </row>
     <row r="202" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A202" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B202" s="20">
         <v>1997</v>
@@ -13324,7 +13336,7 @@
     </row>
     <row r="203" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A203" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B203" s="20">
         <v>1999</v>
@@ -13348,7 +13360,7 @@
         <v>11.5</v>
       </c>
       <c r="I203" s="24" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="J203" s="20">
         <v>70.2</v>
@@ -13383,7 +13395,7 @@
     </row>
     <row r="204" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A204" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B204" s="20">
         <v>1991</v>
@@ -13442,7 +13454,7 @@
     </row>
     <row r="205" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A205" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B205" s="20">
         <v>1992</v>
@@ -13466,7 +13478,7 @@
         <v>10.8</v>
       </c>
       <c r="I205" s="24" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J205" s="20">
         <v>72.8</v>
@@ -13501,7 +13513,7 @@
     </row>
     <row r="206" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A206" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B206" s="20">
         <v>1993</v>
@@ -13560,7 +13572,7 @@
     </row>
     <row r="207" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A207" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B207" s="20">
         <v>1994</v>
@@ -13619,7 +13631,7 @@
     </row>
     <row r="208" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A208" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B208" s="20">
         <v>2007</v>
@@ -13678,7 +13690,7 @@
     </row>
     <row r="209" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A209" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B209" s="20">
         <v>1994</v>
@@ -13702,7 +13714,7 @@
         <v>11.6</v>
       </c>
       <c r="I209" s="24" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J209" s="20">
         <v>67.8</v>
@@ -13737,7 +13749,7 @@
     </row>
     <row r="210" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A210" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B210" s="20">
         <v>2006</v>
@@ -13761,7 +13773,7 @@
         <v>14.7</v>
       </c>
       <c r="I210" s="28" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J210" s="20">
         <v>67.599999999999994</v>
@@ -13796,7 +13808,7 @@
     </row>
     <row r="211" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A211" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B211" s="20">
         <v>2010</v>
@@ -13855,7 +13867,7 @@
     </row>
     <row r="212" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A212" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B212" s="20">
         <v>1999</v>
@@ -13879,7 +13891,7 @@
         <v>14.6</v>
       </c>
       <c r="I212" s="28" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J212" s="20">
         <v>73.3</v>
@@ -13914,7 +13926,7 @@
     </row>
     <row r="213" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A213" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B213" s="20">
         <v>2000</v>
@@ -13938,7 +13950,7 @@
         <v>11.7</v>
       </c>
       <c r="I213" s="24" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="J213" s="20">
         <v>70.5</v>
@@ -13973,7 +13985,7 @@
     </row>
     <row r="214" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A214" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B214" s="20">
         <v>1991</v>
@@ -14032,7 +14044,7 @@
     </row>
     <row r="215" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A215" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B215" s="20">
         <v>2000</v>
@@ -14056,7 +14068,7 @@
         <v>14.7</v>
       </c>
       <c r="I215" s="28" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="J215" s="20">
         <v>73.7</v>
@@ -14091,7 +14103,7 @@
     </row>
     <row r="216" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A216" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B216" s="20">
         <v>2006</v>
@@ -14115,7 +14127,7 @@
         <v>14.6</v>
       </c>
       <c r="I216" s="28" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="J216" s="20">
         <v>65.5</v>
@@ -14150,7 +14162,7 @@
     </row>
     <row r="217" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A217" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B217" s="20">
         <v>1992</v>
@@ -14174,7 +14186,7 @@
         <v>12.2</v>
       </c>
       <c r="I217" s="24" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="J217" s="20">
         <v>70.099999999999994</v>
@@ -14209,7 +14221,7 @@
     </row>
     <row r="218" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A218" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B218" s="20">
         <v>2017</v>
@@ -14233,7 +14245,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="I218" s="28" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="J218" s="20">
         <v>78.3</v>
@@ -14268,7 +14280,7 @@
     </row>
     <row r="219" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A219" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B219" s="20">
         <v>1994</v>
@@ -14292,7 +14304,7 @@
         <v>11.9</v>
       </c>
       <c r="I219" s="28" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J219" s="20">
         <v>68.2</v>
@@ -14327,7 +14339,7 @@
     </row>
     <row r="220" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A220" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B220" s="20">
         <v>2005</v>
@@ -14351,7 +14363,7 @@
         <v>14.6</v>
       </c>
       <c r="I220" s="28" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="J220" s="20">
         <v>67.5</v>
@@ -14386,7 +14398,7 @@
     </row>
     <row r="221" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A221" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B221" s="20">
         <v>2011</v>
@@ -14445,7 +14457,7 @@
     </row>
     <row r="222" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A222" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B222" s="20">
         <v>2001</v>
@@ -14469,7 +14481,7 @@
         <v>15</v>
       </c>
       <c r="I222" s="28" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J222" s="20">
         <v>74.099999999999994</v>
@@ -14504,7 +14516,7 @@
     </row>
     <row r="223" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A223" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B223" s="20">
         <v>1991</v>
@@ -14563,7 +14575,7 @@
     </row>
     <row r="224" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A224" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B224" s="20">
         <v>2018</v>
@@ -14587,7 +14599,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="I224" s="28" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J224" s="20">
         <v>78.5</v>
@@ -14622,7 +14634,7 @@
     </row>
     <row r="225" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A225" s="31" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B225" s="32">
         <v>2001</v>
@@ -14646,7 +14658,7 @@
         <v>12</v>
       </c>
       <c r="I225" s="39" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J225" s="32">
         <v>70.8</v>
@@ -14681,7 +14693,7 @@
     </row>
     <row r="226" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A226" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B226" s="20">
         <v>2004</v>
@@ -14705,7 +14717,7 @@
         <v>14.4</v>
       </c>
       <c r="I226" s="28" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="J226" s="20">
         <v>67.400000000000006</v>
@@ -14740,7 +14752,7 @@
     </row>
     <row r="227" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A227" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B227" s="20">
         <v>1992</v>
@@ -14799,7 +14811,7 @@
     </row>
     <row r="228" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A228" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B228" s="20">
         <v>2012</v>
@@ -14858,7 +14870,7 @@
     </row>
     <row r="229" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A229" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B229" s="20">
         <v>2018</v>
@@ -14917,7 +14929,7 @@
     </row>
     <row r="230" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A230" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B230" s="20">
         <v>1995</v>
@@ -14941,7 +14953,7 @@
         <v>11.6</v>
       </c>
       <c r="I230" s="24" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="J230" s="20">
         <v>67.8</v>
@@ -14976,7 +14988,7 @@
     </row>
     <row r="231" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A231" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B231" s="20">
         <v>2016</v>
@@ -15000,7 +15012,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="I231" s="28" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J231" s="20">
         <v>78.099999999999994</v>
@@ -15035,7 +15047,7 @@
     </row>
     <row r="232" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A232" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B232" s="20">
         <v>2016</v>
@@ -15094,7 +15106,7 @@
     </row>
     <row r="233" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A233" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B233" s="20">
         <v>2017</v>
@@ -15153,7 +15165,7 @@
     </row>
     <row r="234" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A234" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B234" s="20">
         <v>2005</v>
@@ -15177,7 +15189,7 @@
         <v>14.3</v>
       </c>
       <c r="I234" s="28" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="J234" s="20">
         <v>65.2</v>
@@ -15212,7 +15224,7 @@
     </row>
     <row r="235" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A235" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B235" s="20">
         <v>1992</v>
@@ -15236,7 +15248,7 @@
         <v>12.4</v>
       </c>
       <c r="I235" s="28" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="J235" s="20">
         <v>67.099999999999994</v>
@@ -15271,7 +15283,7 @@
     </row>
     <row r="236" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A236" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B236" s="20">
         <v>2013</v>
@@ -15330,7 +15342,7 @@
     </row>
     <row r="237" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A237" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B237" s="20">
         <v>2014</v>
@@ -15389,7 +15401,7 @@
     </row>
     <row r="238" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A238" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B238" s="20">
         <v>2015</v>
@@ -15448,7 +15460,7 @@
     </row>
     <row r="239" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A239" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B239" s="20">
         <v>1992</v>
@@ -15472,7 +15484,7 @@
         <v>12.3</v>
       </c>
       <c r="I239" s="28" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="J239" s="20">
         <v>65.7</v>
@@ -15507,7 +15519,7 @@
     </row>
     <row r="240" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A240" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B240" s="20">
         <v>2002</v>
@@ -15531,7 +15543,7 @@
         <v>15.3</v>
       </c>
       <c r="I240" s="28" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="J240" s="20">
         <v>74.400000000000006</v>
@@ -15566,7 +15578,7 @@
     </row>
     <row r="241" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A241" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B241" s="20">
         <v>2003</v>
@@ -15590,7 +15602,7 @@
         <v>14.4</v>
       </c>
       <c r="I241" s="28" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="J241" s="20">
         <v>67.3</v>
@@ -15625,7 +15637,7 @@
     </row>
     <row r="242" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A242" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B242" s="20">
         <v>1995</v>
@@ -15649,7 +15661,7 @@
         <v>13.1</v>
       </c>
       <c r="I242" s="28" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J242" s="20">
         <v>71.8</v>
@@ -15684,7 +15696,7 @@
     </row>
     <row r="243" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A243" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B243" s="20">
         <v>2002</v>
@@ -15708,7 +15720,7 @@
         <v>12.5</v>
       </c>
       <c r="I243" s="24" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J243" s="20">
         <v>71.2</v>
@@ -15743,7 +15755,7 @@
     </row>
     <row r="244" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A244" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B244" s="20">
         <v>1993</v>
@@ -15767,7 +15779,7 @@
         <v>12.1</v>
       </c>
       <c r="I244" s="28" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="J244" s="20">
         <v>65.099999999999994</v>
@@ -15802,7 +15814,7 @@
     </row>
     <row r="245" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A245" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B245" s="20">
         <v>2004</v>
@@ -15826,7 +15838,7 @@
         <v>13.9</v>
       </c>
       <c r="I245" s="28" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="J245" s="20">
         <v>64.900000000000006</v>
@@ -15861,7 +15873,7 @@
     </row>
     <row r="246" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A246" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B246" s="20">
         <v>2002</v>
@@ -15885,7 +15897,7 @@
         <v>14.1</v>
       </c>
       <c r="I246" s="28" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="J246" s="20">
         <v>67.3</v>
@@ -15920,7 +15932,7 @@
     </row>
     <row r="247" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A247" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B247" s="20">
         <v>1993</v>
@@ -15979,7 +15991,7 @@
     </row>
     <row r="248" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A248" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B248" s="20">
         <v>1994</v>
@@ -16003,7 +16015,7 @@
         <v>12</v>
       </c>
       <c r="I248" s="28" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="J248" s="20">
         <v>64.5</v>
@@ -16038,7 +16050,7 @@
     </row>
     <row r="249" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A249" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B249" s="20">
         <v>1993</v>
@@ -16097,7 +16109,7 @@
     </row>
     <row r="250" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A250" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B250" s="20">
         <v>2003</v>
@@ -16121,7 +16133,7 @@
         <v>13.5</v>
       </c>
       <c r="I250" s="28" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="J250" s="20">
         <v>64.5</v>
@@ -16156,7 +16168,7 @@
     </row>
     <row r="251" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A251" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B251" s="20">
         <v>1999</v>
@@ -16180,7 +16192,7 @@
         <v>13.1</v>
       </c>
       <c r="I251" s="28" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="J251" s="20">
         <v>67.3</v>
@@ -16215,7 +16227,7 @@
     </row>
     <row r="252" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A252" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B252" s="20">
         <v>2001</v>
@@ -16239,7 +16251,7 @@
         <v>13.7</v>
       </c>
       <c r="I252" s="28" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="J252" s="20">
         <v>67.3</v>
@@ -16274,7 +16286,7 @@
     </row>
     <row r="253" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A253" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B253" s="20">
         <v>1996</v>
@@ -16298,7 +16310,7 @@
         <v>11.9</v>
       </c>
       <c r="I253" s="24" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="J253" s="20">
         <v>68.099999999999994</v>
@@ -16333,7 +16345,7 @@
     </row>
     <row r="254" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A254" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B254" s="10">
         <v>1998</v>
@@ -16357,7 +16369,7 @@
         <v>13</v>
       </c>
       <c r="I254" s="30" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="J254" s="10">
         <v>67.3</v>
@@ -16392,7 +16404,7 @@
     </row>
     <row r="255" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A255" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B255" s="20">
         <v>2000</v>
@@ -16416,7 +16428,7 @@
         <v>13</v>
       </c>
       <c r="I255" s="28" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="J255" s="20">
         <v>67.3</v>
@@ -16451,7 +16463,7 @@
     </row>
     <row r="256" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A256" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B256" s="20">
         <v>1991</v>
@@ -16510,7 +16522,7 @@
     </row>
     <row r="257" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A257" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B257" s="20">
         <v>1995</v>
@@ -16534,7 +16546,7 @@
         <v>12</v>
       </c>
       <c r="I257" s="28" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="J257" s="20">
         <v>63.9</v>
@@ -16569,7 +16581,7 @@
     </row>
     <row r="258" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A258" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B258" s="20">
         <v>2002</v>
@@ -16593,7 +16605,7 @@
         <v>13.1</v>
       </c>
       <c r="I258" s="28" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="J258" s="20">
         <v>64.2</v>
@@ -16628,7 +16640,7 @@
     </row>
     <row r="259" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A259" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B259" s="20">
         <v>2003</v>
@@ -16652,7 +16664,7 @@
         <v>12.9</v>
       </c>
       <c r="I259" s="24" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="J259" s="20">
         <v>71.599999999999994</v>
@@ -16687,7 +16699,7 @@
     </row>
     <row r="260" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A260" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B260" s="20">
         <v>1995</v>
@@ -16711,7 +16723,7 @@
         <v>12.2</v>
       </c>
       <c r="I260" s="28" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="J260" s="20">
         <v>67.900000000000006</v>
@@ -16746,7 +16758,7 @@
     </row>
     <row r="261" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A261" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B261" s="20">
         <v>1997</v>
@@ -16770,7 +16782,7 @@
         <v>12.7</v>
       </c>
       <c r="I261" s="28" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="J261" s="20">
         <v>67.5</v>
@@ -16805,7 +16817,7 @@
     </row>
     <row r="262" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A262" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B262" s="20">
         <v>1996</v>
@@ -16829,7 +16841,7 @@
         <v>12</v>
       </c>
       <c r="I262" s="28" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="J262" s="20">
         <v>63.5</v>
@@ -16864,7 +16876,7 @@
     </row>
     <row r="263" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A263" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B263" s="20">
         <v>1997</v>
@@ -16888,7 +16900,7 @@
         <v>12.1</v>
       </c>
       <c r="I263" s="28" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="J263" s="20">
         <v>63.3</v>
@@ -16923,7 +16935,7 @@
     </row>
     <row r="264" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A264" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B264" s="20">
         <v>1998</v>
@@ -16947,7 +16959,7 @@
         <v>12.1</v>
       </c>
       <c r="I264" s="28" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="J264" s="20">
         <v>63.2</v>
@@ -16982,7 +16994,7 @@
     </row>
     <row r="265" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A265" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B265" s="20">
         <v>2015</v>
@@ -17006,7 +17018,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="I265" s="28" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="J265" s="20">
         <v>77.900000000000006</v>
@@ -17041,7 +17053,7 @@
     </row>
     <row r="266" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A266" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B266" s="20">
         <v>1999</v>
@@ -17065,7 +17077,7 @@
         <v>12.1</v>
       </c>
       <c r="I266" s="28" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="J266" s="20">
         <v>63.2</v>
@@ -17100,7 +17112,7 @@
     </row>
     <row r="267" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A267" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B267" s="20">
         <v>2000</v>
@@ -17159,7 +17171,7 @@
     </row>
     <row r="268" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A268" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B268" s="20">
         <v>2001</v>
@@ -17183,7 +17195,7 @@
         <v>12.7</v>
       </c>
       <c r="I268" s="28" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="J268" s="20">
         <v>63.8</v>
@@ -17218,7 +17230,7 @@
     </row>
     <row r="269" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A269" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B269" s="20">
         <v>1994</v>
@@ -17277,7 +17289,7 @@
     </row>
     <row r="270" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A270" s="19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B270" s="20">
         <v>1996</v>
@@ -17301,7 +17313,7 @@
         <v>12.4</v>
       </c>
       <c r="I270" s="28" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="J270" s="20">
         <v>67.599999999999994</v>
@@ -17336,7 +17348,7 @@
     </row>
     <row r="271" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A271" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B271" s="20">
         <v>1994</v>
@@ -17360,7 +17372,7 @@
         <v>11.8</v>
       </c>
       <c r="I271" s="24" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J271" s="20">
         <v>71</v>
@@ -17395,7 +17407,7 @@
     </row>
     <row r="272" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A272" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B272" s="20">
         <v>2003</v>
@@ -17419,7 +17431,7 @@
         <v>15.5</v>
       </c>
       <c r="I272" s="28" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="J272" s="20">
         <v>74.599999999999994</v>
@@ -17454,7 +17466,7 @@
     </row>
     <row r="273" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A273" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B273" s="20">
         <v>2018</v>
@@ -17513,7 +17525,7 @@
     </row>
     <row r="274" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A274" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B274" s="20">
         <v>1995</v>
@@ -17537,7 +17549,7 @@
         <v>12</v>
       </c>
       <c r="I274" s="24" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="J274" s="20">
         <v>69.8</v>
@@ -17572,7 +17584,7 @@
     </row>
     <row r="275" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A275" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B275" s="20">
         <v>1997</v>
@@ -17596,7 +17608,7 @@
         <v>12.3</v>
       </c>
       <c r="I275" s="24" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="J275" s="20">
         <v>68.400000000000006</v>
@@ -17631,7 +17643,7 @@
     </row>
     <row r="276" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A276" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B276" s="20">
         <v>2017</v>
@@ -17690,7 +17702,7 @@
     </row>
     <row r="277" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A277" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B277" s="20">
         <v>1995</v>
@@ -17714,7 +17726,7 @@
         <v>12.1</v>
       </c>
       <c r="I277" s="24" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="J277" s="20">
         <v>70.900000000000006</v>
@@ -17749,7 +17761,7 @@
     </row>
     <row r="278" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A278" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B278" s="20">
         <v>2008</v>
@@ -17773,7 +17785,7 @@
         <v>15</v>
       </c>
       <c r="I278" s="28" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="J278" s="20">
         <v>75.8</v>
@@ -17808,7 +17820,7 @@
     </row>
     <row r="279" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A279" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B279" s="20">
         <v>2009</v>
@@ -17832,7 +17844,7 @@
         <v>15.1</v>
       </c>
       <c r="I279" s="28" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="J279" s="20">
         <v>76</v>
@@ -17867,7 +17879,7 @@
     </row>
     <row r="280" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A280" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B280" s="20">
         <v>2004</v>
@@ -17891,7 +17903,7 @@
         <v>13.4</v>
       </c>
       <c r="I280" s="24" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="J280" s="20">
         <v>71.900000000000006</v>
@@ -17926,7 +17938,7 @@
     </row>
     <row r="281" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A281" s="31" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B281" s="32">
         <v>1992</v>
@@ -17985,7 +17997,7 @@
     </row>
     <row r="282" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A282" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B282" s="20">
         <v>1996</v>
@@ -18009,7 +18021,7 @@
         <v>12.4</v>
       </c>
       <c r="I282" s="24" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="J282" s="20">
         <v>69.900000000000006</v>
@@ -18044,7 +18056,7 @@
     </row>
     <row r="283" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A283" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B283" s="20">
         <v>2006</v>
@@ -18068,7 +18080,7 @@
         <v>15</v>
       </c>
       <c r="I283" s="28" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="J283" s="20">
         <v>75.3</v>
@@ -18103,7 +18115,7 @@
     </row>
     <row r="284" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A284" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B284" s="20">
         <v>2007</v>
@@ -18127,7 +18139,7 @@
         <v>15</v>
       </c>
       <c r="I284" s="28" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="J284" s="20">
         <v>75.5</v>
@@ -18162,7 +18174,7 @@
     </row>
     <row r="285" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A285" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B285" s="20">
         <v>2010</v>
@@ -18186,7 +18198,7 @@
         <v>15.3</v>
       </c>
       <c r="I285" s="28" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="J285" s="20">
         <v>76.3</v>
@@ -18221,7 +18233,7 @@
     </row>
     <row r="286" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A286" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B286" s="20">
         <v>2014</v>
@@ -18245,7 +18257,7 @@
         <v>16</v>
       </c>
       <c r="I286" s="28" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="J286" s="20">
         <v>77.599999999999994</v>
@@ -18280,7 +18292,7 @@
     </row>
     <row r="287" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A287" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B287" s="20">
         <v>2018</v>
@@ -18304,7 +18316,7 @@
         <v>11.6</v>
       </c>
       <c r="I287" s="28" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="J287" s="20">
         <v>71.8</v>
@@ -18339,7 +18351,7 @@
     </row>
     <row r="288" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A288" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B288" s="20">
         <v>1996</v>
@@ -18363,7 +18375,7 @@
         <v>12.6</v>
       </c>
       <c r="I288" s="24" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="J288" s="20">
         <v>70.900000000000006</v>
@@ -18398,7 +18410,7 @@
     </row>
     <row r="289" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A289" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B289" s="20">
         <v>1997</v>
@@ -18422,7 +18434,7 @@
         <v>12.7</v>
       </c>
       <c r="I289" s="24" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="J289" s="20">
         <v>71</v>
@@ -18457,7 +18469,7 @@
     </row>
     <row r="290" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A290" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B290" s="20">
         <v>1998</v>
@@ -18516,7 +18528,7 @@
     </row>
     <row r="291" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A291" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B291" s="20">
         <v>1999</v>
@@ -18575,7 +18587,7 @@
     </row>
     <row r="292" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A292" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B292" s="20">
         <v>1997</v>
@@ -18599,7 +18611,7 @@
         <v>12.9</v>
       </c>
       <c r="I292" s="24" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="J292" s="20">
         <v>70.099999999999994</v>
@@ -18634,7 +18646,7 @@
     </row>
     <row r="293" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A293" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B293" s="20">
         <v>2005</v>
@@ -18658,7 +18670,7 @@
         <v>15</v>
       </c>
       <c r="I293" s="28" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="J293" s="20">
         <v>75.099999999999994</v>
@@ -18693,7 +18705,7 @@
     </row>
     <row r="294" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A294" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B294" s="20">
         <v>2011</v>
@@ -18717,7 +18729,7 @@
         <v>15.2</v>
       </c>
       <c r="I294" s="28" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="J294" s="20">
         <v>76.599999999999994</v>
@@ -18752,7 +18764,7 @@
     </row>
     <row r="295" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A295" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B295" s="20">
         <v>1998</v>
@@ -18776,7 +18788,7 @@
         <v>12.9</v>
       </c>
       <c r="I295" s="24" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J295" s="20">
         <v>68.900000000000006</v>
@@ -18811,7 +18823,7 @@
     </row>
     <row r="296" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A296" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B296" s="20">
         <v>2017</v>
@@ -18835,7 +18847,7 @@
         <v>11.6</v>
       </c>
       <c r="I296" s="28" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J296" s="20">
         <v>71.7</v>
@@ -18870,7 +18882,7 @@
     </row>
     <row r="297" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A297" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B297" s="20">
         <v>2000</v>
@@ -18929,7 +18941,7 @@
     </row>
     <row r="298" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A298" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B298" s="20">
         <v>2016</v>
@@ -18988,7 +19000,7 @@
     </row>
     <row r="299" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A299" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B299" s="20">
         <v>1998</v>
@@ -19012,7 +19024,7 @@
         <v>13.4</v>
       </c>
       <c r="I299" s="24" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="J299" s="20">
         <v>70.400000000000006</v>
@@ -19047,7 +19059,7 @@
     </row>
     <row r="300" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A300" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B300" s="20">
         <v>2004</v>
@@ -19071,7 +19083,7 @@
         <v>14.8</v>
       </c>
       <c r="I300" s="28" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="J300" s="20">
         <v>74.900000000000006</v>
@@ -19106,7 +19118,7 @@
     </row>
     <row r="301" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A301" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B301" s="20">
         <v>2012</v>
@@ -19130,7 +19142,7 @@
         <v>15.3</v>
       </c>
       <c r="I301" s="28" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="J301" s="20">
         <v>77</v>
@@ -19165,7 +19177,7 @@
     </row>
     <row r="302" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A302" s="19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B302" s="20">
         <v>2013</v>
@@ -19189,7 +19201,7 @@
         <v>16.3</v>
       </c>
       <c r="I302" s="28" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="J302" s="20">
         <v>77.3</v>
@@ -19224,7 +19236,7 @@
     </row>
     <row r="303" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A303" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B303" s="20">
         <v>2016</v>
@@ -19248,7 +19260,7 @@
         <v>11.6</v>
       </c>
       <c r="I303" s="28" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="J303" s="20">
         <v>71.599999999999994</v>
@@ -19283,7 +19295,7 @@
     </row>
     <row r="304" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A304" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B304" s="20">
         <v>1999</v>
@@ -19307,7 +19319,7 @@
         <v>13.9</v>
       </c>
       <c r="I304" s="24" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="J304" s="20">
         <v>70.7</v>
@@ -19342,7 +19354,7 @@
     </row>
     <row r="305" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A305" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B305" s="20">
         <v>2008</v>
@@ -19401,7 +19413,7 @@
     </row>
     <row r="306" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A306" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B306" s="20">
         <v>2009</v>
@@ -19460,7 +19472,7 @@
     </row>
     <row r="307" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A307" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B307" s="20">
         <v>2005</v>
@@ -19519,7 +19531,7 @@
     </row>
     <row r="308" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A308" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B308" s="20">
         <v>2001</v>
@@ -19578,7 +19590,7 @@
     </row>
     <row r="309" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A309" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B309" s="20">
         <v>2000</v>
@@ -19602,7 +19614,7 @@
         <v>14.4</v>
       </c>
       <c r="I309" s="24" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="J309" s="20">
         <v>71</v>
@@ -19637,7 +19649,7 @@
     </row>
     <row r="310" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A310" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B310" s="10">
         <v>1999</v>
@@ -19661,7 +19673,7 @@
         <v>13.6</v>
       </c>
       <c r="I310" s="14" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="J310" s="10">
         <v>69.3</v>
@@ -19696,7 +19708,7 @@
     </row>
     <row r="311" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A311" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B311" s="20">
         <v>2015</v>
@@ -19720,7 +19732,7 @@
         <v>11.6</v>
       </c>
       <c r="I311" s="28" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="J311" s="20">
         <v>71.5</v>
@@ -19755,7 +19767,7 @@
     </row>
     <row r="312" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A312" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B312" s="20">
         <v>2002</v>
@@ -19814,7 +19826,7 @@
     </row>
     <row r="313" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A313" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B313" s="20">
         <v>2010</v>
@@ -19873,7 +19885,7 @@
     </row>
     <row r="314" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A314" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B314" s="20">
         <v>2001</v>
@@ -19897,7 +19909,7 @@
         <v>15</v>
       </c>
       <c r="I314" s="24" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="J314" s="20">
         <v>71.2</v>
@@ -19932,7 +19944,7 @@
     </row>
     <row r="315" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A315" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B315" s="20">
         <v>1993</v>
@@ -19991,7 +20003,7 @@
     </row>
     <row r="316" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A316" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B316" s="20">
         <v>2007</v>
@@ -20050,7 +20062,7 @@
     </row>
     <row r="317" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A317" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B317" s="20">
         <v>2015</v>
@@ -20109,7 +20121,7 @@
     </row>
     <row r="318" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A318" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B318" s="20">
         <v>2017</v>
@@ -20133,7 +20145,7 @@
         <v>15.2</v>
       </c>
       <c r="I318" s="28" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="J318" s="20">
         <v>72.099999999999994</v>
@@ -20168,7 +20180,7 @@
     </row>
     <row r="319" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A319" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B319" s="20">
         <v>2018</v>
@@ -20192,7 +20204,7 @@
         <v>15</v>
       </c>
       <c r="I319" s="28" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="J319" s="20">
         <v>72.400000000000006</v>
@@ -20227,7 +20239,7 @@
     </row>
     <row r="320" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A320" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B320" s="20">
         <v>2003</v>
@@ -20286,7 +20298,7 @@
     </row>
     <row r="321" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A321" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B321" s="20">
         <v>2011</v>
@@ -20345,7 +20357,7 @@
     </row>
     <row r="322" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A322" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B322" s="20">
         <v>2002</v>
@@ -20404,7 +20416,7 @@
     </row>
     <row r="323" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A323" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B323" s="20">
         <v>2014</v>
@@ -20428,7 +20440,7 @@
         <v>11.8</v>
       </c>
       <c r="I323" s="28" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="J323" s="20">
         <v>71.3</v>
@@ -20463,7 +20475,7 @@
     </row>
     <row r="324" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A324" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B324" s="20">
         <v>2009</v>
@@ -20522,7 +20534,7 @@
     </row>
     <row r="325" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A325" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B325" s="20">
         <v>2010</v>
@@ -20581,7 +20593,7 @@
     </row>
     <row r="326" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A326" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B326" s="20">
         <v>2011</v>
@@ -20640,7 +20652,7 @@
     </row>
     <row r="327" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A327" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B327" s="20">
         <v>2004</v>
@@ -20699,7 +20711,7 @@
     </row>
     <row r="328" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A328" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B328" s="20">
         <v>2000</v>
@@ -20758,7 +20770,7 @@
     </row>
     <row r="329" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A329" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B329" s="20">
         <v>2012</v>
@@ -20817,7 +20829,7 @@
     </row>
     <row r="330" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A330" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B330" s="20">
         <v>2012</v>
@@ -20876,7 +20888,7 @@
     </row>
     <row r="331" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A331" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B331" s="20">
         <v>2006</v>
@@ -20935,7 +20947,7 @@
     </row>
     <row r="332" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A332" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B332" s="20">
         <v>2008</v>
@@ -20994,7 +21006,7 @@
     </row>
     <row r="333" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A333" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B333" s="20">
         <v>2005</v>
@@ -21053,7 +21065,7 @@
     </row>
     <row r="334" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A334" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B334" s="20">
         <v>1994</v>
@@ -21112,7 +21124,7 @@
     </row>
     <row r="335" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A335" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B335" s="20">
         <v>2014</v>
@@ -21171,7 +21183,7 @@
     </row>
     <row r="336" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A336" s="31" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B336" s="32">
         <v>2003</v>
@@ -21230,7 +21242,7 @@
     </row>
     <row r="337" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A337" s="31" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B337" s="32">
         <v>2016</v>
@@ -21254,7 +21266,7 @@
         <v>15.1</v>
       </c>
       <c r="I337" s="36" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="J337" s="32">
         <v>71.8</v>
@@ -21289,7 +21301,7 @@
     </row>
     <row r="338" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A338" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B338" s="20">
         <v>2006</v>
@@ -21348,7 +21360,7 @@
     </row>
     <row r="339" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A339" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B339" s="20">
         <v>2007</v>
@@ -21407,7 +21419,7 @@
     </row>
     <row r="340" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A340" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B340" s="20">
         <v>1993</v>
@@ -21431,7 +21443,7 @@
         <v>12</v>
       </c>
       <c r="I340" s="28" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="J340" s="20">
         <v>66.599999999999994</v>
@@ -21466,7 +21478,7 @@
     </row>
     <row r="341" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A341" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B341" s="20">
         <v>2006</v>
@@ -21525,7 +21537,7 @@
     </row>
     <row r="342" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A342" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B342" s="20">
         <v>2001</v>
@@ -21584,7 +21596,7 @@
     </row>
     <row r="343" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A343" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B343" s="20">
         <v>2013</v>
@@ -21643,7 +21655,7 @@
     </row>
     <row r="344" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A344" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B344" s="20">
         <v>2013</v>
@@ -21702,7 +21714,7 @@
     </row>
     <row r="345" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A345" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B345" s="20">
         <v>2006</v>
@@ -21761,7 +21773,7 @@
     </row>
     <row r="346" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A346" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B346" s="20">
         <v>2013</v>
@@ -21785,7 +21797,7 @@
         <v>11.8</v>
       </c>
       <c r="I346" s="28" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J346" s="20">
         <v>71</v>
@@ -21820,7 +21832,7 @@
     </row>
     <row r="347" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A347" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B347" s="20">
         <v>2007</v>
@@ -21879,7 +21891,7 @@
     </row>
     <row r="348" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A348" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B348" s="20">
         <v>2008</v>
@@ -21938,7 +21950,7 @@
     </row>
     <row r="349" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A349" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B349" s="20">
         <v>2007</v>
@@ -21997,7 +22009,7 @@
     </row>
     <row r="350" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A350" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B350" s="20">
         <v>2016</v>
@@ -22056,7 +22068,7 @@
     </row>
     <row r="351" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A351" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B351" s="20">
         <v>2015</v>
@@ -22080,7 +22092,7 @@
         <v>14.8</v>
       </c>
       <c r="I351" s="28" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J351" s="20">
         <v>71.5</v>
@@ -22115,7 +22127,7 @@
     </row>
     <row r="352" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A352" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B352" s="20">
         <v>1995</v>
@@ -22174,7 +22186,7 @@
     </row>
     <row r="353" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A353" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B353" s="20">
         <v>2004</v>
@@ -22233,7 +22245,7 @@
     </row>
     <row r="354" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A354" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B354" s="20">
         <v>2005</v>
@@ -22292,7 +22304,7 @@
     </row>
     <row r="355" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A355" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B355" s="20">
         <v>2009</v>
@@ -22351,7 +22363,7 @@
     </row>
     <row r="356" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A356" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B356" s="20">
         <v>2010</v>
@@ -22410,7 +22422,7 @@
     </row>
     <row r="357" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A357" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B357" s="20">
         <v>1991</v>
@@ -22469,7 +22481,7 @@
     </row>
     <row r="358" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A358" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B358" s="20">
         <v>2014</v>
@@ -22528,7 +22540,7 @@
     </row>
     <row r="359" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A359" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B359" s="20">
         <v>2015</v>
@@ -22587,7 +22599,7 @@
     </row>
     <row r="360" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A360" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B360" s="20">
         <v>2005</v>
@@ -22646,7 +22658,7 @@
     </row>
     <row r="361" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A361" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B361" s="20">
         <v>2011</v>
@@ -22705,7 +22717,7 @@
     </row>
     <row r="362" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A362" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B362" s="20">
         <v>2017</v>
@@ -22764,7 +22776,7 @@
     </row>
     <row r="363" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A363" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B363" s="20">
         <v>2008</v>
@@ -22823,7 +22835,7 @@
     </row>
     <row r="364" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A364" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B364" s="20">
         <v>2018</v>
@@ -22882,7 +22894,7 @@
     </row>
     <row r="365" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A365" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B365" s="20">
         <v>2009</v>
@@ -22941,7 +22953,7 @@
     </row>
     <row r="366" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A366" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B366" s="40">
         <v>2002</v>
@@ -23000,7 +23012,7 @@
     </row>
     <row r="367" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A367" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B367" s="41">
         <v>2010</v>
@@ -23024,7 +23036,7 @@
         <v>14.4</v>
       </c>
       <c r="I367" s="24" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="J367" s="20">
         <v>73.7</v>
@@ -23059,7 +23071,7 @@
     </row>
     <row r="368" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A368" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B368" s="41">
         <v>1996</v>
@@ -23118,7 +23130,7 @@
     </row>
     <row r="369" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A369" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B369" s="41">
         <v>2014</v>
@@ -23142,7 +23154,7 @@
         <v>14.8</v>
       </c>
       <c r="I369" s="28" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="J369" s="20">
         <v>71</v>
@@ -23177,7 +23189,7 @@
     </row>
     <row r="370" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A370" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B370" s="41">
         <v>2012</v>
@@ -23201,7 +23213,7 @@
         <v>11.8</v>
       </c>
       <c r="I370" s="28" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="J370" s="20">
         <v>70.599999999999994</v>
@@ -23236,7 +23248,7 @@
     </row>
     <row r="371" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A371" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B371" s="41">
         <v>2004</v>
@@ -23295,7 +23307,7 @@
     </row>
     <row r="372" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A372" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B372" s="41">
         <v>2012</v>
@@ -23354,7 +23366,7 @@
     </row>
     <row r="373" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A373" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B373" s="41">
         <v>1992</v>
@@ -23378,7 +23390,7 @@
         <v>11.6</v>
       </c>
       <c r="I373" s="28" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J373" s="20">
         <v>67.400000000000006</v>
@@ -23413,7 +23425,7 @@
     </row>
     <row r="374" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A374" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B374" s="41">
         <v>2003</v>
@@ -23472,7 +23484,7 @@
     </row>
     <row r="375" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A375" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B375" s="41">
         <v>2011</v>
@@ -23496,7 +23508,7 @@
         <v>14.5</v>
       </c>
       <c r="I375" s="24" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="J375" s="20">
         <v>73.900000000000006</v>
@@ -23531,7 +23543,7 @@
     </row>
     <row r="376" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A376" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B376" s="41">
         <v>2003</v>
@@ -23590,7 +23602,7 @@
     </row>
     <row r="377" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A377" s="19" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B377" s="41">
         <v>1991</v>
@@ -23649,7 +23661,7 @@
     </row>
     <row r="378" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A378" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B378" s="41">
         <v>1997</v>
@@ -23708,7 +23720,7 @@
     </row>
     <row r="379" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A379" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B379" s="41">
         <v>2002</v>
@@ -23767,7 +23779,7 @@
     </row>
     <row r="380" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A380" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B380" s="41">
         <v>2013</v>
@@ -23791,7 +23803,7 @@
         <v>14.6</v>
       </c>
       <c r="I380" s="28" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="J380" s="20">
         <v>70.5</v>
@@ -23826,7 +23838,7 @@
     </row>
     <row r="381" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A381" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B381" s="41">
         <v>2015</v>
@@ -23885,7 +23897,7 @@
     </row>
     <row r="382" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A382" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B382" s="41">
         <v>2016</v>
@@ -23944,7 +23956,7 @@
     </row>
     <row r="383" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A383" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B383" s="41">
         <v>2017</v>
@@ -24003,7 +24015,7 @@
     </row>
     <row r="384" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A384" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B384" s="41">
         <v>2018</v>
@@ -24062,7 +24074,7 @@
     </row>
     <row r="385" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A385" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B385" s="41">
         <v>2011</v>
@@ -24086,7 +24098,7 @@
         <v>11.8</v>
       </c>
       <c r="I385" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="J385" s="20">
         <v>70.099999999999994</v>
@@ -24121,7 +24133,7 @@
     </row>
     <row r="386" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A386" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B386" s="41">
         <v>2013</v>
@@ -24180,7 +24192,7 @@
     </row>
     <row r="387" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A387" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B387" s="41">
         <v>2004</v>
@@ -24239,7 +24251,7 @@
     </row>
     <row r="388" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A388" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B388" s="41">
         <v>1998</v>
@@ -24298,7 +24310,7 @@
     </row>
     <row r="389" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A389" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B389" s="41">
         <v>2001</v>
@@ -24357,7 +24369,7 @@
     </row>
     <row r="390" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A390" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B390" s="41">
         <v>2014</v>
@@ -24416,7 +24428,7 @@
     </row>
     <row r="391" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A391" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B391" s="41">
         <v>1993</v>
@@ -24440,7 +24452,7 @@
         <v>11.4</v>
       </c>
       <c r="I391" s="28" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="J391" s="20">
         <v>67.2</v>
@@ -24475,7 +24487,7 @@
     </row>
     <row r="392" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A392" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B392" s="41">
         <v>2012</v>
@@ -24499,7 +24511,7 @@
         <v>14.5</v>
       </c>
       <c r="I392" s="24" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="J392" s="20">
         <v>74.099999999999994</v>
@@ -24534,7 +24546,7 @@
     </row>
     <row r="393" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A393" s="31" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B393" s="42">
         <v>1999</v>
@@ -24593,7 +24605,7 @@
     </row>
     <row r="394" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A394" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B394" s="40">
         <v>2013</v>
@@ -24652,7 +24664,7 @@
     </row>
     <row r="395" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A395" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B395" s="41">
         <v>2000</v>
@@ -24711,7 +24723,7 @@
     </row>
     <row r="396" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A396" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B396" s="41">
         <v>2005</v>
@@ -24770,7 +24782,7 @@
     </row>
     <row r="397" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A397" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B397" s="41">
         <v>2006</v>
@@ -24829,7 +24841,7 @@
     </row>
     <row r="398" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A398" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B398" s="41">
         <v>2012</v>
@@ -24888,7 +24900,7 @@
     </row>
     <row r="399" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A399" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B399" s="41">
         <v>2012</v>
@@ -24912,7 +24924,7 @@
         <v>14.6</v>
       </c>
       <c r="I399" s="28" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="J399" s="20">
         <v>69.900000000000006</v>
@@ -24947,7 +24959,7 @@
     </row>
     <row r="400" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A400" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B400" s="41">
         <v>2014</v>
@@ -25006,7 +25018,7 @@
     </row>
     <row r="401" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A401" s="19" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B401" s="41">
         <v>1992</v>
@@ -25065,7 +25077,7 @@
     </row>
     <row r="402" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A402" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B402" s="41">
         <v>2007</v>
@@ -25124,7 +25136,7 @@
     </row>
     <row r="403" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A403" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B403" s="41">
         <v>2011</v>
@@ -25183,7 +25195,7 @@
     </row>
     <row r="404" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A404" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B404" s="41">
         <v>2010</v>
@@ -25207,7 +25219,7 @@
         <v>11.8</v>
       </c>
       <c r="I404" s="28" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="J404" s="20">
         <v>69.599999999999994</v>
@@ -25242,7 +25254,7 @@
     </row>
     <row r="405" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A405" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B405" s="41">
         <v>2009</v>
@@ -25301,7 +25313,7 @@
     </row>
     <row r="406" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A406" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B406" s="41">
         <v>2010</v>
@@ -25360,7 +25372,7 @@
     </row>
     <row r="407" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A407" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B407" s="41">
         <v>2013</v>
@@ -25384,7 +25396,7 @@
         <v>14.9</v>
       </c>
       <c r="I407" s="24" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="J407" s="20">
         <v>74.3</v>
@@ -25419,7 +25431,7 @@
     </row>
     <row r="408" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A408" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B408" s="41">
         <v>2008</v>
@@ -25478,7 +25490,7 @@
     </row>
     <row r="409" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A409" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B409" s="41">
         <v>1994</v>
@@ -25502,7 +25514,7 @@
         <v>11.2</v>
       </c>
       <c r="I409" s="28" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="J409" s="20">
         <v>67</v>
@@ -25537,7 +25549,7 @@
     </row>
     <row r="410" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A410" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B410" s="41">
         <v>1994</v>
@@ -25561,7 +25573,7 @@
         <v>11.8</v>
       </c>
       <c r="I410" s="28" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="J410" s="20">
         <v>66.3</v>
@@ -25596,7 +25608,7 @@
     </row>
     <row r="411" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A411" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B411" s="41">
         <v>2011</v>
@@ -25620,7 +25632,7 @@
         <v>14.3</v>
       </c>
       <c r="I411" s="28" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="J411" s="20">
         <v>69.3</v>
@@ -25655,7 +25667,7 @@
     </row>
     <row r="412" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A412" s="19" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B412" s="41">
         <v>2011</v>
@@ -25714,7 +25726,7 @@
     </row>
     <row r="413" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A413" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B413" s="41">
         <v>2015</v>
@@ -25773,7 +25785,7 @@
     </row>
     <row r="414" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A414" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B414" s="41">
         <v>2010</v>
@@ -25797,7 +25809,7 @@
         <v>14</v>
       </c>
       <c r="I414" s="28" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="J414" s="20">
         <v>68.7</v>
@@ -25832,7 +25844,7 @@
     </row>
     <row r="415" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A415" s="19" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B415" s="41">
         <v>2010</v>
@@ -25891,7 +25903,7 @@
     </row>
     <row r="416" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A416" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B416" s="41">
         <v>2018</v>
@@ -25950,7 +25962,7 @@
     </row>
     <row r="417" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A417" s="19" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B417" s="41">
         <v>2009</v>
@@ -26009,7 +26021,7 @@
     </row>
     <row r="418" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A418" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B418" s="41">
         <v>2016</v>
@@ -26068,7 +26080,7 @@
     </row>
     <row r="419" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A419" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B419" s="41">
         <v>2009</v>
@@ -26092,7 +26104,7 @@
         <v>11.8</v>
       </c>
       <c r="I419" s="28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="J419" s="20">
         <v>69.099999999999994</v>
@@ -26127,7 +26139,7 @@
     </row>
     <row r="420" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A420" s="19" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B420" s="41">
         <v>2012</v>
@@ -26186,7 +26198,7 @@
     </row>
     <row r="421" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A421" s="31" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B421" s="42">
         <v>2017</v>
@@ -26245,7 +26257,7 @@
     </row>
     <row r="422" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A422" s="9" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B422" s="40">
         <v>1993</v>
@@ -26269,7 +26281,7 @@
         <v>10.9</v>
       </c>
       <c r="I422" s="30" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="J422" s="10">
         <v>68.2</v>
@@ -26304,7 +26316,7 @@
     </row>
     <row r="423" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A423" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B423" s="41">
         <v>2014</v>
@@ -26328,7 +26340,7 @@
         <v>15.2</v>
       </c>
       <c r="I423" s="24" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="J423" s="20">
         <v>74.5</v>
@@ -26363,7 +26375,7 @@
     </row>
     <row r="424" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A424" s="19" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B424" s="41">
         <v>2008</v>
@@ -26422,7 +26434,7 @@
     </row>
     <row r="425" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A425" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B425" s="41">
         <v>1995</v>
@@ -26446,7 +26458,7 @@
         <v>11</v>
       </c>
       <c r="I425" s="28" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="J425" s="20">
         <v>66.900000000000006</v>
@@ -26481,7 +26493,7 @@
     </row>
     <row r="426" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A426" s="19" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B426" s="41">
         <v>2013</v>
@@ -26540,7 +26552,7 @@
     </row>
     <row r="427" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A427" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B427" s="41">
         <v>2008</v>
@@ -26564,7 +26576,7 @@
         <v>12</v>
       </c>
       <c r="I427" s="28" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="J427" s="20">
         <v>68.7</v>
@@ -26599,7 +26611,7 @@
     </row>
     <row r="428" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A428" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B428" s="41">
         <v>2002</v>
@@ -26623,7 +26635,7 @@
         <v>13.2</v>
       </c>
       <c r="I428" s="28" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="J428" s="20">
         <v>65</v>
@@ -26658,7 +26670,7 @@
     </row>
     <row r="429" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A429" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B429" s="41">
         <v>2009</v>
@@ -26682,7 +26694,7 @@
         <v>13.7</v>
       </c>
       <c r="I429" s="28" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="J429" s="20">
         <v>68.099999999999994</v>
@@ -26717,7 +26729,7 @@
     </row>
     <row r="430" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A430" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B430" s="41">
         <v>1999</v>
@@ -26741,7 +26753,7 @@
         <v>12.1</v>
       </c>
       <c r="I430" s="28" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="J430" s="20">
         <v>65.2</v>
@@ -26776,7 +26788,7 @@
     </row>
     <row r="431" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A431" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B431" s="41">
         <v>1997</v>
@@ -26800,7 +26812,7 @@
         <v>11.9</v>
       </c>
       <c r="I431" s="28" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="J431" s="20">
         <v>65.599999999999994</v>
@@ -26835,7 +26847,7 @@
     </row>
     <row r="432" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A432" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B432" s="41">
         <v>2007</v>
@@ -26859,7 +26871,7 @@
         <v>13.9</v>
       </c>
       <c r="I432" s="28" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="J432" s="20">
         <v>66.8</v>
@@ -26894,7 +26906,7 @@
     </row>
     <row r="433" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A433" s="19" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B433" s="41">
         <v>2007</v>
@@ -26953,7 +26965,7 @@
     </row>
     <row r="434" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A434" s="19" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B434" s="41">
         <v>2014</v>
@@ -27012,7 +27024,7 @@
     </row>
     <row r="435" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A435" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B435" s="41">
         <v>1995</v>
@@ -27036,7 +27048,7 @@
         <v>11.8</v>
       </c>
       <c r="I435" s="28" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="J435" s="20">
         <v>66</v>
@@ -27071,7 +27083,7 @@
     </row>
     <row r="436" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A436" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B436" s="41">
         <v>1998</v>
@@ -27095,7 +27107,7 @@
         <v>12</v>
       </c>
       <c r="I436" s="28" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="J436" s="20">
         <v>65.400000000000006</v>
@@ -27130,7 +27142,7 @@
     </row>
     <row r="437" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A437" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B437" s="41">
         <v>2001</v>
@@ -27154,7 +27166,7 @@
         <v>12.8</v>
       </c>
       <c r="I437" s="28" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="J437" s="20">
         <v>65</v>
@@ -27189,7 +27201,7 @@
     </row>
     <row r="438" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A438" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B438" s="41">
         <v>2015</v>
@@ -27213,7 +27225,7 @@
         <v>15.1</v>
       </c>
       <c r="I438" s="24" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="J438" s="20">
         <v>74.599999999999994</v>
@@ -27248,7 +27260,7 @@
     </row>
     <row r="439" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A439" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B439" s="41">
         <v>2007</v>
@@ -27272,7 +27284,7 @@
         <v>12.1</v>
       </c>
       <c r="I439" s="28" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="J439" s="20">
         <v>68.3</v>
@@ -27307,7 +27319,7 @@
     </row>
     <row r="440" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A440" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B440" s="41">
         <v>2000</v>
@@ -27331,7 +27343,7 @@
         <v>12.5</v>
       </c>
       <c r="I440" s="28" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="J440" s="20">
         <v>65.099999999999994</v>
@@ -27366,7 +27378,7 @@
     </row>
     <row r="441" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A441" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B441" s="41">
         <v>1996</v>
@@ -27390,7 +27402,7 @@
         <v>10.7</v>
       </c>
       <c r="I441" s="28" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="J441" s="20">
         <v>66.8</v>
@@ -27425,7 +27437,7 @@
     </row>
     <row r="442" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A442" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B442" s="41">
         <v>2003</v>
@@ -27440,7 +27452,7 @@
         <v>13521.2389</v>
       </c>
       <c r="F442" s="23" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G442" s="23">
         <v>31.888610719429433</v>
@@ -27449,7 +27461,7 @@
         <v>13.6</v>
       </c>
       <c r="I442" s="28" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="J442" s="20">
         <v>65.099999999999994</v>
@@ -27484,7 +27496,7 @@
     </row>
     <row r="443" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A443" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B443" s="41">
         <v>2008</v>
@@ -27508,7 +27520,7 @@
         <v>14</v>
       </c>
       <c r="I443" s="28" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="J443" s="20">
         <v>67.400000000000006</v>
@@ -27543,7 +27555,7 @@
     </row>
     <row r="444" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A444" s="19" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B444" s="41">
         <v>1994</v>
@@ -27567,7 +27579,7 @@
         <v>10.6</v>
       </c>
       <c r="I444" s="28" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="J444" s="20">
         <v>68.5</v>
@@ -27602,7 +27614,7 @@
     </row>
     <row r="445" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A445" s="19" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B445" s="41">
         <v>2015</v>
@@ -27661,7 +27673,7 @@
     </row>
     <row r="446" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A446" s="19" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B446" s="41">
         <v>2006</v>
@@ -27720,7 +27732,7 @@
     </row>
     <row r="447" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A447" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B447" s="41">
         <v>2006</v>
@@ -27744,7 +27756,7 @@
         <v>12.1</v>
       </c>
       <c r="I447" s="28" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="J447" s="20">
         <v>68</v>
@@ -27779,7 +27791,7 @@
     </row>
     <row r="448" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A448" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B448" s="41">
         <v>2006</v>
@@ -27803,7 +27815,7 @@
         <v>13.8</v>
       </c>
       <c r="I448" s="28" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="J448" s="20">
         <v>66.2</v>
@@ -27838,7 +27850,7 @@
     </row>
     <row r="449" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A449" s="31" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B449" s="42">
         <v>2016</v>
@@ -27897,7 +27909,7 @@
     </row>
     <row r="450" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A450" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B450" s="40">
         <v>1996</v>
@@ -27921,7 +27933,7 @@
         <v>11.9</v>
       </c>
       <c r="I450" s="30" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="J450" s="10">
         <v>65.8</v>
@@ -27956,7 +27968,7 @@
     </row>
     <row r="451" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A451" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B451" s="41">
         <v>2005</v>
@@ -27980,7 +27992,7 @@
         <v>13.8</v>
       </c>
       <c r="I451" s="28" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="J451" s="20">
         <v>65.8</v>
@@ -28015,7 +28027,7 @@
     </row>
     <row r="452" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A452" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B452" s="41">
         <v>2005</v>
@@ -28039,7 +28051,7 @@
         <v>11.9</v>
       </c>
       <c r="I452" s="28" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="J452" s="20">
         <v>67.8</v>
@@ -28074,7 +28086,7 @@
     </row>
     <row r="453" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A453" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B453" s="41">
         <v>2004</v>
@@ -28098,7 +28110,7 @@
         <v>13.7</v>
       </c>
       <c r="I453" s="28" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="J453" s="20">
         <v>65.400000000000006</v>
@@ -28133,7 +28145,7 @@
     </row>
     <row r="454" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A454" s="19" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B454" s="41">
         <v>2017</v>
@@ -28192,7 +28204,7 @@
     </row>
     <row r="455" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A455" s="19" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B455" s="41">
         <v>2018</v>
@@ -28251,7 +28263,7 @@
     </row>
     <row r="456" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A456" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B456" s="41">
         <v>2016</v>
@@ -28275,7 +28287,7 @@
         <v>14.9</v>
       </c>
       <c r="I456" s="24" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="J456" s="20">
         <v>74.7</v>
@@ -28310,7 +28322,7 @@
     </row>
     <row r="457" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A457" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B457" s="41">
         <v>2004</v>
@@ -28334,7 +28346,7 @@
         <v>11.9</v>
       </c>
       <c r="I457" s="28" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="J457" s="20">
         <v>67.7</v>
@@ -28369,7 +28381,7 @@
     </row>
     <row r="458" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A458" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B458" s="41">
         <v>1997</v>
@@ -28393,7 +28405,7 @@
         <v>10.7</v>
       </c>
       <c r="I458" s="28" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="J458" s="20">
         <v>66.7</v>
@@ -28428,7 +28440,7 @@
     </row>
     <row r="459" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A459" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B459" s="41">
         <v>2003</v>
@@ -28452,7 +28464,7 @@
         <v>11.7</v>
       </c>
       <c r="I459" s="28" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="J459" s="20">
         <v>67.5</v>
@@ -28487,7 +28499,7 @@
     </row>
     <row r="460" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A460" s="19" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B460" s="41">
         <v>2005</v>
@@ -28546,7 +28558,7 @@
     </row>
     <row r="461" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A461" s="19" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B461" s="41">
         <v>1995</v>
@@ -28570,7 +28582,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I461" s="28" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="J461" s="20">
         <v>68.900000000000006</v>
@@ -28605,7 +28617,7 @@
     </row>
     <row r="462" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A462" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B462" s="41">
         <v>2017</v>
@@ -28629,7 +28641,7 @@
         <v>14.6</v>
       </c>
       <c r="I462" s="24" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="J462" s="20">
         <v>74.8</v>
@@ -28664,7 +28676,7 @@
     </row>
     <row r="463" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A463" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B463" s="41">
         <v>2002</v>
@@ -28688,7 +28700,7 @@
         <v>11.5</v>
       </c>
       <c r="I463" s="28" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="J463" s="20">
         <v>67.400000000000006</v>
@@ -28723,7 +28735,7 @@
     </row>
     <row r="464" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A464" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B464" s="41">
         <v>2018</v>
@@ -28747,7 +28759,7 @@
         <v>14.4</v>
       </c>
       <c r="I464" s="24" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="J464" s="20">
         <v>74.900000000000006</v>
@@ -28782,7 +28794,7 @@
     </row>
     <row r="465" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A465" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B465" s="41">
         <v>1998</v>
@@ -28806,7 +28818,7 @@
         <v>11.1</v>
       </c>
       <c r="I465" s="28" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="J465" s="20">
         <v>66.8</v>
@@ -28841,7 +28853,7 @@
     </row>
     <row r="466" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A466" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B466" s="41">
         <v>2001</v>
@@ -28865,7 +28877,7 @@
         <v>11.3</v>
       </c>
       <c r="I466" s="28" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="J466" s="20">
         <v>67.2</v>
@@ -28900,7 +28912,7 @@
     </row>
     <row r="467" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A467" s="19" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B467" s="41">
         <v>2004</v>
@@ -28959,7 +28971,7 @@
     </row>
     <row r="468" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A468" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B468" s="41">
         <v>1999</v>
@@ -28983,7 +28995,7 @@
         <v>11.4</v>
       </c>
       <c r="I468" s="28" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="J468" s="20">
         <v>66.900000000000006</v>
@@ -29018,7 +29030,7 @@
     </row>
     <row r="469" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A469" s="19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B469" s="41">
         <v>2000</v>
@@ -29042,7 +29054,7 @@
         <v>11.4</v>
       </c>
       <c r="I469" s="28" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="J469" s="20">
         <v>67</v>
@@ -29077,7 +29089,7 @@
     </row>
     <row r="470" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A470" s="19" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B470" s="41">
         <v>2003</v>
@@ -29136,7 +29148,7 @@
     </row>
     <row r="471" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A471" s="19" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B471" s="41">
         <v>1996</v>
@@ -29160,7 +29172,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I471" s="28" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="J471" s="20">
         <v>69.400000000000006</v>
@@ -29195,7 +29207,7 @@
     </row>
     <row r="472" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A472" s="19" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B472" s="41">
         <v>2002</v>
@@ -29254,7 +29266,7 @@
     </row>
     <row r="473" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A473" s="19" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B473" s="41">
         <v>1997</v>
@@ -29278,7 +29290,7 @@
         <v>10.5</v>
       </c>
       <c r="I473" s="28" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="J473" s="20">
         <v>69.900000000000006</v>
@@ -29313,7 +29325,7 @@
     </row>
     <row r="474" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A474" s="19" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B474" s="41">
         <v>2001</v>
@@ -29337,7 +29349,7 @@
         <v>10.9</v>
       </c>
       <c r="I474" s="28" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="J474" s="20">
         <v>71.8</v>
@@ -29372,7 +29384,7 @@
     </row>
     <row r="475" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A475" s="19" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B475" s="41">
         <v>2000</v>
@@ -29396,7 +29408,7 @@
         <v>11.2</v>
       </c>
       <c r="I475" s="28" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="J475" s="20">
         <v>71.400000000000006</v>
@@ -29431,7 +29443,7 @@
     </row>
     <row r="476" spans="1:19" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A476" s="19" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B476" s="41">
         <v>1998</v>
@@ -29490,7 +29502,7 @@
     </row>
     <row r="477" spans="1:19" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A477" s="31" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B477" s="42">
         <v>1999</v>
@@ -29514,7 +29526,7 @@
         <v>11.4</v>
       </c>
       <c r="I477" s="36" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="J477" s="32">
         <v>70.900000000000006</v>
